--- a/Recipe template.xlsx
+++ b/Recipe template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nandi\Google Drive\recipies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6BC359-6D60-4304-95EB-0B3C85DAC9EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C68DD493-07E4-4DB2-BFB6-4171EBAF2F13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8CBC1288-2A94-44F0-92DE-D9C7067027C5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{134C7825-DF8B-42D3-A51C-71C91B0E6488}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,22 +33,103 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>How many servings</t>
-  </si>
-  <si>
-    <t>Recipe servings count</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+  <si>
+    <t>Item name</t>
+  </si>
+  <si>
+    <t>Daily recipe</t>
   </si>
   <si>
     <t>Units</t>
+  </si>
+  <si>
+    <t>Desired quantity</t>
+  </si>
+  <si>
+    <t>Base Recipe</t>
+  </si>
+  <si>
+    <t>Moong dal yellow</t>
+  </si>
+  <si>
+    <t>cup</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>tadka</t>
+  </si>
+  <si>
+    <t>TBSP</t>
+  </si>
+  <si>
+    <t>Bay leaf</t>
+  </si>
+  <si>
+    <t>mustard seed</t>
+  </si>
+  <si>
+    <t>tsp</t>
+  </si>
+  <si>
+    <t>jeera seeds</t>
+  </si>
+  <si>
+    <t>heeng</t>
+  </si>
+  <si>
+    <t>red chilly dry</t>
+  </si>
+  <si>
+    <t>ginger pouned</t>
+  </si>
+  <si>
+    <t>haldi</t>
+  </si>
+  <si>
+    <t>roasted jeera powder</t>
+  </si>
+  <si>
+    <t>salt</t>
+  </si>
+  <si>
+    <t>dhania patta</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Radha vallabh P book</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recipe servings in </t>
+  </si>
+  <si>
+    <t>Peanut oil/ghee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56 bhog book </t>
+  </si>
+  <si>
+    <t>page 26</t>
+  </si>
+  <si>
+    <t>optonal moringa leaves</t>
+  </si>
+  <si>
+    <t>cup leaves</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="170" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -56,19 +137,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -83,17 +166,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -104,6 +205,23 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D76ED776-8104-432C-B917-1D930E70AF60}" name="Table1" displayName="Table1" ref="A1:F27" totalsRowShown="0">
+  <autoFilter ref="A1:F27" xr:uid="{12D95053-9C3E-4819-B2F6-1CB5C1FDDA15}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{BD6E7EDD-66B1-4838-AD7A-A2AA04EF5520}" name="Item name"/>
+    <tableColumn id="2" xr3:uid="{80E22383-2B6C-411A-A07C-2DA040A14090}" name="Daily recipe" dataDxfId="0">
+      <calculatedColumnFormula>(E2/F2)*D2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{BA881225-BED3-4E67-B47C-4698F260EEC9}" name="Units"/>
+    <tableColumn id="4" xr3:uid="{F8DDA7B9-BDD0-4FC7-81D1-05E24A7722C0}" name="Desired quantity"/>
+    <tableColumn id="5" xr3:uid="{18FB6B36-2514-472B-AF66-C1DB0E8B65C0}" name="Base Recipe"/>
+    <tableColumn id="6" xr3:uid="{3C3790B6-55C3-4375-8EAE-3C1C2755E12E}" name="Recipe servings in "/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -402,35 +520,372 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{978BC3E0-ECF0-4896-86AC-0356393532B3}">
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22E1998A-25FC-42BE-BFFC-DAF05717235E}">
+  <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="27" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="5">
+        <f t="shared" ref="B2:B27" si="0">(E3/F3)*D3</f>
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="5">
+        <f t="shared" si="0"/>
+        <v>7.8571428571428577</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="5">
+        <f t="shared" si="0"/>
+        <v>4.7142857142857144</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="5">
+        <f t="shared" si="0"/>
+        <v>1.5714285714285714</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="E7" s="1">
         <v>1</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="1"/>
+      <c r="F7" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="5">
+        <f t="shared" si="0"/>
+        <v>0.39285714285714285</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="F8" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="5">
+        <f t="shared" si="0"/>
+        <v>0.39285714285714285</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="F9" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="5">
+        <f t="shared" si="0"/>
+        <v>0.39285714285714285</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="F10" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="5">
+        <f t="shared" si="0"/>
+        <v>1.5714285714285714</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="5">
+        <f t="shared" si="0"/>
+        <v>1.5714285714285714</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="5">
+        <f t="shared" si="0"/>
+        <v>0.39285714285714285</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="F13" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="5">
+        <f t="shared" si="0"/>
+        <v>3.1428571428571428</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2</v>
+      </c>
+      <c r="F14" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="5">
+        <f t="shared" si="0"/>
+        <v>1.1785714285714286</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="F15" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="5">
+        <f t="shared" si="0"/>
+        <v>1.5714285714285714</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="5">
+        <f t="shared" si="0"/>
+        <v>0.39285714285714285</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="F17" s="1">
+        <v>3.5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Recipe template.xlsx
+++ b/Recipe template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nandi\Google Drive\recipies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C68DD493-07E4-4DB2-BFB6-4171EBAF2F13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897B6FCF-80F6-4175-8037-26ECB0DDA37D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{134C7825-DF8B-42D3-A51C-71C91B0E6488}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Item name</t>
   </si>
@@ -50,76 +50,25 @@
     <t>Base Recipe</t>
   </si>
   <si>
-    <t>Moong dal yellow</t>
-  </si>
-  <si>
     <t>cup</t>
   </si>
   <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>tadka</t>
-  </si>
-  <si>
-    <t>TBSP</t>
-  </si>
-  <si>
-    <t>Bay leaf</t>
-  </si>
-  <si>
-    <t>mustard seed</t>
-  </si>
-  <si>
-    <t>tsp</t>
-  </si>
-  <si>
-    <t>jeera seeds</t>
-  </si>
-  <si>
-    <t>heeng</t>
-  </si>
-  <si>
-    <t>red chilly dry</t>
-  </si>
-  <si>
-    <t>ginger pouned</t>
-  </si>
-  <si>
-    <t>haldi</t>
-  </si>
-  <si>
-    <t>roasted jeera powder</t>
-  </si>
-  <si>
-    <t>salt</t>
-  </si>
-  <si>
-    <t>dhania patta</t>
-  </si>
-  <si>
     <t>Source</t>
   </si>
   <si>
-    <t>Radha vallabh P book</t>
-  </si>
-  <si>
     <t xml:space="preserve">Recipe servings in </t>
   </si>
   <si>
-    <t>Peanut oil/ghee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56 bhog book </t>
-  </si>
-  <si>
-    <t>page 26</t>
-  </si>
-  <si>
-    <t>optonal moringa leaves</t>
-  </si>
-  <si>
-    <t>cup leaves</t>
+    <t>Assumptions</t>
+  </si>
+  <si>
+    <t>Taste Rating</t>
+  </si>
+  <si>
+    <t>Health Rating</t>
+  </si>
+  <si>
+    <t>How many servings are good for us</t>
   </si>
 </sst>
 </file>
@@ -127,7 +76,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -166,7 +115,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -180,11 +129,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -521,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22E1998A-25FC-42BE-BFFC-DAF05717235E}">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,9 +488,10 @@
     <col min="4" max="4" width="27" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" customWidth="1"/>
     <col min="6" max="6" width="18.5703125" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -554,331 +508,255 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D2" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
       <c r="B3" s="5">
-        <f t="shared" ref="B2:B27" si="0">(E3/F3)*D3</f>
-        <v>0.7857142857142857</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>6</v>
-      </c>
+        <f t="shared" ref="B3:B17" si="0">(E3/F3)*D3</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="4"/>
       <c r="D3" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E3" s="1"/>
       <c r="F3" s="1">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
       <c r="B4" s="5">
         <f t="shared" si="0"/>
-        <v>7.8571428571428577</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C4" s="4"/>
       <c r="D4" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="E4" s="1">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E4" s="1"/>
       <c r="F4" s="1">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="C5" s="4"/>
       <c r="D5" s="3">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>24</v>
-      </c>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
-        <v>4.7142857142857144</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C6" s="4"/>
       <c r="D6" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="E6" s="1">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E6" s="1"/>
       <c r="F6" s="1">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>10</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
-        <v>1.5714285714285714</v>
+        <v>0</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E7" s="1"/>
       <c r="F7" s="1">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="3">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="3">
+        <v>4</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1">
+        <v>4</v>
+      </c>
+      <c r="H9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="5">
-        <f t="shared" si="0"/>
-        <v>0.39285714285714285</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="F8" s="1">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="5">
-        <f t="shared" si="0"/>
-        <v>0.39285714285714285</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="F9" s="1">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>14</v>
-      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
-        <v>0.39285714285714285</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C10" s="4"/>
       <c r="D10" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0.25</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E10" s="1"/>
       <c r="F10" s="1">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>15</v>
-      </c>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
-        <v>1.5714285714285714</v>
+        <v>0</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E11" s="1"/>
       <c r="F11" s="1">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>16</v>
-      </c>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
-        <v>1.5714285714285714</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C12" s="4"/>
       <c r="D12" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E12" s="1"/>
       <c r="F12" s="1">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>17</v>
-      </c>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
-        <v>0.39285714285714285</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C13" s="4"/>
       <c r="D13" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0.25</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E13" s="1"/>
       <c r="F13" s="1">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>18</v>
-      </c>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
-        <v>3.1428571428571428</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C14" s="4"/>
       <c r="D14" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="E14" s="1">
-        <v>2</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E14" s="1"/>
       <c r="F14" s="1">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
       <c r="B15" s="5">
         <f t="shared" si="0"/>
-        <v>1.1785714285714286</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C15" s="4"/>
       <c r="D15" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0.75</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E15" s="1"/>
       <c r="F15" s="1">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>20</v>
-      </c>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
       <c r="B16" s="5">
         <f t="shared" si="0"/>
-        <v>1.5714285714285714</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C16" s="4"/>
       <c r="D16" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E16" s="1"/>
       <c r="F16" s="1">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>27</v>
-      </c>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
       <c r="B17" s="5">
         <f t="shared" si="0"/>
-        <v>0.39285714285714285</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C17" s="4"/>
       <c r="D17" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0.25</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E17" s="1"/>
       <c r="F17" s="1">
-        <v>3.5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Recipe template.xlsx
+++ b/Recipe template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nandi\Google Drive\recipies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897B6FCF-80F6-4175-8037-26ECB0DDA37D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41919F31-F0D6-47F9-BECE-7C7F731EF0B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{134C7825-DF8B-42D3-A51C-71C91B0E6488}"/>
   </bookViews>
@@ -78,7 +78,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,6 +90,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -115,7 +122,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -138,6 +145,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -474,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22E1998A-25FC-42BE-BFFC-DAF05717235E}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="D3" sqref="D3:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,15 +538,15 @@
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="5">
-        <f t="shared" ref="B3:B17" si="0">(E3/F3)*D3</f>
+        <f t="shared" ref="B3:B24" si="0">(E3/F3)*D3</f>
         <v>0</v>
       </c>
       <c r="C3" s="4"/>
-      <c r="D3" s="3">
-        <v>4</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1">
+      <c r="D3" s="9">
+        <v>4</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10">
         <v>4</v>
       </c>
     </row>
@@ -544,11 +557,11 @@
         <v>0</v>
       </c>
       <c r="C4" s="4"/>
-      <c r="D4" s="3">
-        <v>4</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1">
+      <c r="D4" s="9">
+        <v>4</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10">
         <v>4</v>
       </c>
       <c r="H4" s="7" t="s">
@@ -562,11 +575,11 @@
         <v>0</v>
       </c>
       <c r="C5" s="4"/>
-      <c r="D5" s="3">
-        <v>4</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1">
+      <c r="D5" s="9">
+        <v>4</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10">
         <v>4</v>
       </c>
     </row>
@@ -577,11 +590,11 @@
         <v>0</v>
       </c>
       <c r="C6" s="4"/>
-      <c r="D6" s="3">
-        <v>4</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1">
+      <c r="D6" s="9">
+        <v>4</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10">
         <v>4</v>
       </c>
       <c r="H6" s="7" t="s">
@@ -595,11 +608,11 @@
         <v>0</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="3">
-        <v>4</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1">
+      <c r="D7" s="9">
+        <v>4</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10">
         <v>4</v>
       </c>
       <c r="H7" s="7" t="s">
@@ -613,11 +626,11 @@
         <v>0</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="3">
-        <v>4</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1">
+      <c r="D8" s="9">
+        <v>4</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10">
         <v>4</v>
       </c>
     </row>
@@ -628,11 +641,11 @@
         <v>0</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="3">
-        <v>4</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1">
+      <c r="D9" s="9">
+        <v>4</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10">
         <v>4</v>
       </c>
       <c r="H9" s="8" t="s">
@@ -646,11 +659,11 @@
         <v>0</v>
       </c>
       <c r="C10" s="4"/>
-      <c r="D10" s="3">
-        <v>4</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1">
+      <c r="D10" s="9">
+        <v>4</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10">
         <v>4</v>
       </c>
     </row>
@@ -661,11 +674,11 @@
         <v>0</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="3">
-        <v>4</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1">
+      <c r="D11" s="9">
+        <v>4</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10">
         <v>4</v>
       </c>
     </row>
@@ -676,11 +689,11 @@
         <v>0</v>
       </c>
       <c r="C12" s="4"/>
-      <c r="D12" s="3">
-        <v>4</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1">
+      <c r="D12" s="9">
+        <v>4</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10">
         <v>4</v>
       </c>
     </row>
@@ -691,11 +704,11 @@
         <v>0</v>
       </c>
       <c r="C13" s="4"/>
-      <c r="D13" s="3">
-        <v>4</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1">
+      <c r="D13" s="9">
+        <v>4</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10">
         <v>4</v>
       </c>
     </row>
@@ -706,11 +719,11 @@
         <v>0</v>
       </c>
       <c r="C14" s="4"/>
-      <c r="D14" s="3">
-        <v>4</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1">
+      <c r="D14" s="9">
+        <v>4</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10">
         <v>4</v>
       </c>
     </row>
@@ -721,11 +734,11 @@
         <v>0</v>
       </c>
       <c r="C15" s="4"/>
-      <c r="D15" s="3">
-        <v>4</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1">
+      <c r="D15" s="9">
+        <v>4</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10">
         <v>4</v>
       </c>
     </row>
@@ -736,11 +749,11 @@
         <v>0</v>
       </c>
       <c r="C16" s="4"/>
-      <c r="D16" s="3">
-        <v>4</v>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1">
+      <c r="D16" s="9">
+        <v>4</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10">
         <v>4</v>
       </c>
     </row>
@@ -751,11 +764,116 @@
         <v>0</v>
       </c>
       <c r="C17" s="4"/>
-      <c r="D17" s="3">
-        <v>4</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1">
+      <c r="D17" s="9">
+        <v>4</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="9">
+        <v>4</v>
+      </c>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="9">
+        <v>4</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="9">
+        <v>4</v>
+      </c>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="9">
+        <v>4</v>
+      </c>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="9">
+        <v>4</v>
+      </c>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="9">
+        <v>4</v>
+      </c>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="9">
+        <v>4</v>
+      </c>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10">
         <v>4</v>
       </c>
     </row>

--- a/Recipe template.xlsx
+++ b/Recipe template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nandi\Google Drive\recipies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41919F31-F0D6-47F9-BECE-7C7F731EF0B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16AA1A8E-A6E4-4C58-9B39-3887FBA1602D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{134C7825-DF8B-42D3-A51C-71C91B0E6488}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Item name</t>
   </si>
@@ -69,6 +69,15 @@
   </si>
   <si>
     <t>How many servings are good for us</t>
+  </si>
+  <si>
+    <t>Accompaniments</t>
+  </si>
+  <si>
+    <t>Amit</t>
+  </si>
+  <si>
+    <t>NGDD</t>
   </si>
 </sst>
 </file>
@@ -487,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22E1998A-25FC-42BE-BFFC-DAF05717235E}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:F24"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,9 +511,10 @@
     <col min="5" max="5" width="15.42578125" customWidth="1"/>
     <col min="6" max="6" width="18.5703125" customWidth="1"/>
     <col min="8" max="8" width="18.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -527,7 +537,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
@@ -535,7 +545,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="5">
         <f t="shared" ref="B3:B24" si="0">(E3/F3)*D3</f>
@@ -550,7 +560,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="5">
         <f t="shared" si="0"/>
@@ -568,7 +578,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="5">
         <f t="shared" si="0"/>
@@ -583,7 +593,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
@@ -600,8 +610,11 @@
       <c r="H6" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
@@ -615,11 +628,11 @@
       <c r="F7" s="10">
         <v>4</v>
       </c>
-      <c r="H7" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
@@ -633,8 +646,11 @@
       <c r="F8" s="10">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H8" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
@@ -648,11 +664,8 @@
       <c r="F9" s="10">
         <v>4</v>
       </c>
-      <c r="H9" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
@@ -666,8 +679,11 @@
       <c r="F10" s="10">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H10" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
@@ -682,7 +698,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
@@ -696,8 +712,11 @@
       <c r="F12" s="10">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H12" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
@@ -712,7 +731,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
@@ -727,7 +746,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="5">
         <f t="shared" si="0"/>
@@ -742,7 +761,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="5">
         <f t="shared" si="0"/>

--- a/Recipe template.xlsx
+++ b/Recipe template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nandi\Google Drive\recipies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amitkumar/Dropbox/recipies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16AA1A8E-A6E4-4C58-9B39-3887FBA1602D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64734C86-0691-8946-9DD9-E092D634DB91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{134C7825-DF8B-42D3-A51C-71C91B0E6488}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" xr2:uid="{134C7825-DF8B-42D3-A51C-71C91B0E6488}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -498,23 +498,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22E1998A-25FC-42BE-BFFC-DAF05717235E}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" customWidth="1"/>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.5" customWidth="1"/>
+    <col min="6" max="6" width="18.5" customWidth="1"/>
+    <col min="8" max="8" width="18.5" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -537,7 +537,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
@@ -545,7 +545,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="5">
         <f t="shared" ref="B3:B24" si="0">(E3/F3)*D3</f>
@@ -560,7 +560,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="5">
         <f t="shared" si="0"/>
@@ -578,7 +578,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="5">
         <f t="shared" si="0"/>
@@ -593,7 +593,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
@@ -614,7 +614,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
@@ -632,7 +632,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
@@ -650,7 +650,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
@@ -665,7 +665,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
@@ -683,7 +683,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
@@ -698,7 +698,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
@@ -716,7 +716,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
@@ -731,7 +731,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
@@ -746,7 +746,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="5">
         <f t="shared" si="0"/>
@@ -761,7 +761,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="5">
         <f t="shared" si="0"/>
@@ -776,7 +776,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" s="5">
         <f t="shared" si="0"/>
@@ -791,7 +791,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
       <c r="B18" s="5">
         <f t="shared" si="0"/>
@@ -806,7 +806,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
       <c r="B19" s="5">
         <f t="shared" si="0"/>
@@ -821,7 +821,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
       <c r="B20" s="5">
         <f t="shared" si="0"/>
@@ -836,7 +836,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
       <c r="B21" s="5">
         <f t="shared" si="0"/>
@@ -851,7 +851,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
       <c r="B22" s="5">
         <f t="shared" si="0"/>
@@ -866,7 +866,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="B23" s="5">
         <f t="shared" si="0"/>
@@ -881,7 +881,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
       <c r="B24" s="5">
         <f t="shared" si="0"/>
